--- a/ModeladoBD/Carreras_CorridaDatos.xlsx
+++ b/ModeladoBD/Carreras_CorridaDatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauricio\Documents\Code\PRACTICAS\ModeladoBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70C87DD-31E6-44F9-8AE8-3E5A8A827C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C167DD-A636-430C-82AB-76556CD2B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{324FF8A6-86CC-8B45-8098-8957576FC0DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{324FF8A6-86CC-8B45-8098-8957576FC0DD}"/>
   </bookViews>
   <sheets>
     <sheet name="carreras" sheetId="1" r:id="rId1"/>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49749B7C-FF45-1A4B-A798-28F11CE44287}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5193F1BC-4603-434B-86E7-D20ACA603C5A}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
